--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Desktop\Automation\eclipse-workspace\Automation_Project-01-Netrogena\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A313F7-4A1E-40B2-82C0-70080F8AF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175F12D-BFF9-4AB7-983D-A0D7FE57B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="3975" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="passwords" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Password</t>
   </si>
@@ -83,79 +83,46 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Hello1</t>
-  </si>
-  <si>
-    <t>Hello2</t>
-  </si>
-  <si>
-    <t>Hello3</t>
-  </si>
-  <si>
-    <t>Hello4</t>
-  </si>
-  <si>
-    <t>Hello5</t>
-  </si>
-  <si>
-    <t>Md</t>
-  </si>
-  <si>
     <t>Akbar</t>
   </si>
   <si>
     <t>Salim</t>
   </si>
   <si>
-    <t>Romjan</t>
-  </si>
-  <si>
-    <t>Miya</t>
-  </si>
-  <si>
-    <t>Munshi</t>
-  </si>
-  <si>
-    <t>Shek</t>
-  </si>
-  <si>
-    <t>Kayser</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Ali@mail.com</t>
-  </si>
-  <si>
     <t>Salim@mail.com</t>
   </si>
   <si>
-    <t>Miya@mail.com</t>
-  </si>
-  <si>
-    <t>Shek@mail.com</t>
-  </si>
-  <si>
-    <t>Kayser@mail.com</t>
+    <t>!aA1234567</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>!aA12345678</t>
+  </si>
+  <si>
+    <t>Salim@mailer.com</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Salim1@mailer.com</t>
   </si>
 </sst>
 </file>
@@ -208,10 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,236 +613,427 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AAAAAD-F454-4A77-B9D8-D0EE528B9407}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.25" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="16.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4">
         <v>1234567890</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
+      <c r="D12" s="4">
         <v>1234567890</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>2001</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1992</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>1234567890</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>2002</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>1234567890</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>2003</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6">
-        <v>1234567890</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>2004</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
+      <c r="H12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{152E60ED-75E5-44D6-A77A-A8E3842B4459}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{A53F5AC2-77FC-44FC-80F1-C03D9C1B4210}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{9010233C-DE92-465A-9A8D-E5B6672DB070}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{54236E05-4CE4-452A-BD50-2546E72825B8}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{4604CD4E-4379-4081-9EFD-FB67825026F1}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{C1546522-87AE-45C7-8211-AFBD695E42CF}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{AD36D744-B533-4D66-BB7E-0347F5B233F5}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{FD8AC1B0-CEA1-4726-AE22-57C5489644D8}"/>
+    <hyperlink ref="G3:G6" r:id="rId4" display="Salim1@mailer.com" xr:uid="{9BC23482-6677-41D4-9181-AFA9005A2B4E}"/>
+    <hyperlink ref="G8:G10" r:id="rId5" display="Salim1@mailer.com" xr:uid="{90BD53D6-8164-410D-840E-21A8FC225320}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Desktop\Automation\eclipse-workspace\Automation_Project-01-Netrogena\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175F12D-BFF9-4AB7-983D-A0D7FE57B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5546C3C8-A573-439E-9098-FDA464902B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="passwords" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="footer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>Password</t>
   </si>
@@ -123,6 +124,225 @@
   </si>
   <si>
     <t>Salim1@mailer.com</t>
+  </si>
+  <si>
+    <t>Sl.No.</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Company Info</t>
+  </si>
+  <si>
+    <t>About Neutrogena®</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/about-us.html</t>
+  </si>
+  <si>
+    <t>Why Neutrogena® ?</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/why-neutrogena.html</t>
+  </si>
+  <si>
+    <t>Product Testing</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/producttesting.html</t>
+  </si>
+  <si>
+    <t>Healthcare Professionals</t>
+  </si>
+  <si>
+    <t>https://www.neutrogenamd.com/?utm_source=neutrogena.com</t>
+  </si>
+  <si>
+    <t>Our Promise</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/our-promise.html</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/faqs-info.html</t>
+  </si>
+  <si>
+    <t>Find in Store</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/on/demandware.store/Sites-Neutrogena-Site/default/Stores-Find</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/contact/contact.html</t>
+  </si>
+  <si>
+    <t>Discontinued Products</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/discontinued</t>
+  </si>
+  <si>
+    <t>Light Therapy Mask Recall Statement</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/light-therapy-statement.html</t>
+  </si>
+  <si>
+    <t>Aerosol Sunscreen Voluntary Recall Statement</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/sunscreen-recall.html</t>
+  </si>
+  <si>
+    <t>Online Purchases</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/on/demandware.store/Sites-Neutrogena-Site/default/Login-OrderStatus</t>
+  </si>
+  <si>
+    <t>Ordering &amp; Payments</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/customer-service/ordering/ordering-payment.html</t>
+  </si>
+  <si>
+    <t>Returns &amp; Exchanges</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/customer-service/ordering/return-exchange.html</t>
+  </si>
+  <si>
+    <t>Shipping Information</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/customer-service/ordering/shipping-info.html</t>
+  </si>
+  <si>
+    <t>Care Club - Loyalty Program</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/care-club.html</t>
+  </si>
+  <si>
+    <t>Klarna Info</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/on/demandware.store/Sites-Neutrogena-Site/default/KlarnaPayments-InfoPage</t>
+  </si>
+  <si>
+    <t>Offers</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/offers.html</t>
+  </si>
+  <si>
+    <t>Follow Us</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-fb</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/neutrogenaUS/?brand_redir=523724637799039</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-tw</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Neutrogena</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-yt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/Neutrogena</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-ig</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/Neutrogena/</t>
+  </si>
+  <si>
+    <t>Images-Show#tiktok-icon-mono</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@neutrogena_us</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/customer-service/terms/terms.html</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/customer-service/privacy-security/privacy-policy.html</t>
+  </si>
+  <si>
+    <t>Do Not Sell My Personal Information</t>
+  </si>
+  <si>
+    <t>https://privacyportal-cdn.onetrust.com/dsarwebform/96f23ee1-34e3-41d6-8d5a-07f0d554152b/83bc2fd2-1604-4e64-93e5-2670b01de08b.html?WebsiteName=www.neutrogena.com</t>
+  </si>
+  <si>
+    <t>Site Map</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/on/demandware.store/Sites-Neutrogena-Site/default/SiteMap-Start</t>
+  </si>
+  <si>
+    <t>AdChoices</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/customer-service/privacy-security/privacy-policy.html#internetbasedads</t>
+  </si>
+  <si>
+    <t>Badge</t>
+  </si>
+  <si>
+    <t>Klarna</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Maestro</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>VisaElectron</t>
+  </si>
+  <si>
+    <t>Discover</t>
   </si>
 </sst>
 </file>
@@ -615,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AAAAAD-F454-4A77-B9D8-D0EE528B9407}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1038,4 +1258,544 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8643A78-A67A-4091-8EDD-CFF27817BD4A}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9C37B45D-967E-4361-8933-B89C597DB931}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C77616A5-CFE3-4AFA-BB4F-5B52300613E3}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{1D6C436E-B7F6-4ABD-86BE-40A56CA88BD5}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{0A9BC0C6-59B1-4678-A939-6074F56E432E}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{B75224D9-1DE3-4D3E-B8F9-5D6EF6A480B0}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{6E8E1EFE-D817-4366-97EB-63674DAB8444}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{7A0EE64E-5486-4237-9FAA-70C8546363B7}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{BAA2EFE5-D421-4460-B391-B55FC4C76777}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{987BBA77-3448-4B76-9BFB-AFE39507C654}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{49322DD3-F1A2-4F5C-AA8D-A7A2D7A1FC23}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{CA6A3D58-9E25-49B9-BC61-94BCDDA381A9}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{DB39B734-05A3-4876-801F-FE227DDDA056}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{45E9FF67-BEC7-4463-83B1-90F21D78BA4E}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{7B70645B-9DA3-4C98-9249-F346FCEAEED9}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{E09E487E-ABF9-4960-BB1D-D8A2AB27604B}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{A36F9F6C-6883-47E1-A27E-0256CEFD703C}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{402E79A0-FA95-41E9-A9C2-FD3C25DA8A07}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{6E66CF4B-B419-4772-84ED-E5E3DC606311}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{D7B1AE5D-00AF-4F1A-83F3-015798588B90}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{90F2FC91-F57B-4D0F-944F-E68C727DE9B1}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{7CA6D869-1F7B-4D0A-9D85-20EBD2545400}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{9C49DA45-4E0F-4E1C-9CA6-9E6BE2251964}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{4AB1EE42-1832-404D-9EC0-CF03AAD4EF8F}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{879D9273-AB2F-4B10-901F-66EE3E389287}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{4CE4399F-1D4F-4B5C-B735-F5E3D46932F2}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{31BD8151-1BA7-491F-BAD7-3A6427116714}"/>
+    <hyperlink ref="D29" r:id="rId27" location="internetbasedads" xr:uid="{68F771BA-A14B-4A45-92BF-A54F66052FA8}"/>
+    <hyperlink ref="D19" r:id="rId28" xr:uid="{27051A2E-E0A0-4EB0-84E8-699F0AAFBDE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>